--- a/data/VCF/SFL_FilterStats.xlsx
+++ b/data/VCF/SFL_FilterStats.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 Research\04 Projects\01 Southern Flounder\02 Data Analysis\SFL_LinkageMap\data\VCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="14310" activeTab="2"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="FamB" sheetId="9" r:id="rId3"/>
     <sheet name="FamB_Final_Filter" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -556,8 +561,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +602,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -697,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,6 +1051,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,7 +1126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1132,9 +1159,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,6 +1211,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11593,20 +11654,20 @@
   <dimension ref="A1:W171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H174" sqref="H174"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38:Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="53" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="15" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="15" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="15" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" style="14" hidden="1" customWidth="1"/>
     <col min="12" max="13" width="6.28515625" style="15" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" style="15" customWidth="1"/>
@@ -13372,7 +13433,7 @@
       <c r="P38" s="17">
         <v>0.99</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="141">
         <v>0.01</v>
       </c>
       <c r="R38" s="118">
@@ -13438,7 +13499,7 @@
       <c r="P39" s="2">
         <v>0.99</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q39" s="142">
         <v>0.02</v>
       </c>
       <c r="R39" s="119">
@@ -13504,7 +13565,7 @@
       <c r="P40" s="2">
         <v>0.99</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="143">
         <v>0.01</v>
       </c>
       <c r="R40" s="119">
@@ -13570,7 +13631,7 @@
       <c r="P41" s="2">
         <v>0.99</v>
       </c>
-      <c r="Q41" s="15">
+      <c r="Q41" s="142">
         <v>0.02</v>
       </c>
       <c r="R41" s="119">
@@ -13595,7 +13656,7 @@
       <c r="N42" s="83"/>
       <c r="O42" s="83"/>
       <c r="P42" s="83"/>
-      <c r="Q42" s="83"/>
+      <c r="Q42" s="144"/>
       <c r="R42" s="120"/>
       <c r="S42" s="82"/>
       <c r="T42" s="82"/>
@@ -13661,7 +13722,7 @@
       <c r="P43" s="15">
         <v>0.9</v>
       </c>
-      <c r="Q43" s="15">
+      <c r="Q43" s="142">
         <v>0.01</v>
       </c>
       <c r="R43" s="119">
@@ -13727,7 +13788,7 @@
       <c r="P44" s="15">
         <v>0.9</v>
       </c>
-      <c r="Q44" s="15">
+      <c r="Q44" s="142">
         <v>0.01</v>
       </c>
       <c r="R44" s="119">
@@ -13793,7 +13854,7 @@
       <c r="P45" s="16">
         <v>0.9</v>
       </c>
-      <c r="Q45" s="16">
+      <c r="Q45" s="145">
         <v>0.02</v>
       </c>
       <c r="R45" s="121">
@@ -13859,7 +13920,7 @@
       <c r="P46" s="15">
         <v>0.9</v>
       </c>
-      <c r="Q46" s="15">
+      <c r="Q46" s="142">
         <v>0.02</v>
       </c>
       <c r="R46" s="119">
